--- a/Test Data/TC_51990_Verify_If_Panel_Type_Dropdown_Is_Filtered_Based_On_Max_Limit_Of_Slotcards_For_PCH800.xlsx
+++ b/Test Data/TC_51990_Verify_If_Panel_Type_Dropdown_Is_Filtered_Based_On_Max_Limit_Of_Slotcards_For_PCH800.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F8F6349-8B1C-46D4-A3A9-A4F1B09C49F8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0559F5D7-644A-43F1-B9E9-B4D50693A729}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5232" yWindow="5232" windowWidth="13824" windowHeight="7152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Add Devices" sheetId="6" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="44">
   <si>
     <t>Color Codes</t>
   </si>
@@ -305,11 +305,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -593,8 +593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O7" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M10" sqref="L10:M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -616,12 +616,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
     </row>
     <row r="2" spans="1:18" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
@@ -808,7 +808,7 @@
       <c r="Q9" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="R9" s="19" t="s">
+      <c r="R9" s="18" t="s">
         <v>41</v>
       </c>
     </row>
@@ -846,11 +846,11 @@
       <c r="K10" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="L10" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="M10" s="14" t="s">
-        <v>23</v>
+      <c r="L10" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="M10" s="14" t="b">
+        <v>0</v>
       </c>
       <c r="N10" s="14" t="s">
         <v>37</v>
@@ -902,11 +902,11 @@
       <c r="K11" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="L11" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="M11" s="14" t="s">
-        <v>23</v>
+      <c r="L11" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="M11" s="14" t="b">
+        <v>0</v>
       </c>
       <c r="N11" s="14" t="s">
         <v>37</v>

--- a/Test Data/TC_51990_Verify_If_Panel_Type_Dropdown_Is_Filtered_Based_On_Max_Limit_Of_Slotcards_For_PCH800.xlsx
+++ b/Test Data/TC_51990_Verify_If_Panel_Type_Dropdown_Is_Filtered_Based_On_Max_Limit_Of_Slotcards_For_PCH800.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0559F5D7-644A-43F1-B9E9-B4D50693A729}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{807FDB4B-5EE9-41D7-AE95-0399F017ED9A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -144,9 +144,6 @@
     <t>Types of Panel</t>
   </si>
   <si>
-    <t>Other Slot Cards  (1 of 6)</t>
-  </si>
-  <si>
     <t>VerifyPanelTypeDropdownOnSlotCardsPosition</t>
   </si>
   <si>
@@ -163,6 +160,9 @@
   </si>
   <si>
     <t>Pro215D,Pro815D,Pro885D,P485D</t>
+  </si>
+  <si>
+    <t>Other Slot Cards  (1 of 18)</t>
   </si>
 </sst>
 </file>
@@ -594,7 +594,7 @@
   <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M10" sqref="L10:M11"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -628,7 +628,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>0</v>
@@ -646,7 +646,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="8" t="s">
@@ -663,7 +663,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="8" t="s">
@@ -809,7 +809,7 @@
         <v>36</v>
       </c>
       <c r="R9" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
@@ -853,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="14" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="O10" s="14" t="s">
         <v>23</v>
@@ -862,10 +862,10 @@
         <v>23</v>
       </c>
       <c r="Q10" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="R10" s="8" t="s">
         <v>42</v>
-      </c>
-      <c r="R10" s="8" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
@@ -909,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="N11" s="14" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="O11" s="14" t="s">
         <v>23</v>
@@ -918,10 +918,10 @@
         <v>23</v>
       </c>
       <c r="Q11" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="R11" s="8" t="s">
         <v>42</v>
-      </c>
-      <c r="R11" s="8" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Test Data/TC_51990_Verify_If_Panel_Type_Dropdown_Is_Filtered_Based_On_Max_Limit_Of_Slotcards_For_PCH800.xlsx
+++ b/Test Data/TC_51990_Verify_If_Panel_Type_Dropdown_Is_Filtered_Based_On_Max_Limit_Of_Slotcards_For_PCH800.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{807FDB4B-5EE9-41D7-AE95-0399F017ED9A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="Add Devices" sheetId="6" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -81,9 +80,6 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>PCH800</t>
-  </si>
-  <si>
     <t>PLX800</t>
   </si>
   <si>
@@ -163,12 +159,15 @@
   </si>
   <si>
     <t>Other Slot Cards  (1 of 18)</t>
+  </si>
+  <si>
+    <t>PCH800 5.0A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -590,11 +589,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -628,7 +627,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>0</v>
@@ -646,7 +645,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="8" t="s">
@@ -663,17 +662,17 @@
         <v>5</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="15" t="s">
         <v>21</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>22</v>
       </c>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
@@ -720,16 +719,16 @@
         <v>11</v>
       </c>
       <c r="E8" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="G8" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="10" t="s">
         <v>17</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>18</v>
       </c>
       <c r="I8" s="10" t="s">
         <v>9</v>
@@ -744,42 +743,42 @@
         <v>14</v>
       </c>
       <c r="M8" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="O8" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="P8" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="N8" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="O8" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="P8" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
+      <c r="B9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="C9" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="10" t="s">
         <v>19</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>20</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I9" s="10" t="s">
         <v>12</v>
@@ -788,39 +787,39 @@
         <v>12</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L9" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M9" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N9" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O9" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P9" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R9" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="C10" s="16" t="s">
         <v>29</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>30</v>
       </c>
       <c r="D10" s="5">
         <v>0</v>
@@ -853,30 +852,30 @@
         <v>0</v>
       </c>
       <c r="N10" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O10" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P10" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q10" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="R10" s="8" t="s">
         <v>41</v>
-      </c>
-      <c r="R10" s="8" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B11" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="16" t="s">
         <v>29</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>30</v>
       </c>
       <c r="D11" s="5">
         <v>0</v>
@@ -909,19 +908,19 @@
         <v>0</v>
       </c>
       <c r="N11" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P11" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q11" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="R11" s="8" t="s">
         <v>41</v>
-      </c>
-      <c r="R11" s="8" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
